--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09110133333333333</v>
+        <v>1.030015666666667</v>
       </c>
       <c r="H2">
-        <v>0.273304</v>
+        <v>3.090047</v>
       </c>
       <c r="I2">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="J2">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>0.7407662590453332</v>
+        <v>3.909107561346556</v>
       </c>
       <c r="R2">
-        <v>6.666896331407999</v>
+        <v>35.181968052119</v>
       </c>
       <c r="S2">
-        <v>3.570548108176921E-06</v>
+        <v>2.032755816860199E-05</v>
       </c>
       <c r="T2">
-        <v>3.570548108176921E-06</v>
+        <v>2.032755816860199E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09110133333333333</v>
+        <v>1.030015666666667</v>
       </c>
       <c r="H3">
-        <v>0.273304</v>
+        <v>3.090047</v>
       </c>
       <c r="I3">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="J3">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>22.17191442039822</v>
+        <v>250.6815035235791</v>
       </c>
       <c r="R3">
-        <v>199.547229783584</v>
+        <v>2256.133531712213</v>
       </c>
       <c r="S3">
-        <v>0.0001068702659195614</v>
+        <v>0.001303556570060929</v>
       </c>
       <c r="T3">
-        <v>0.0001068702659195614</v>
+        <v>0.001303556570060929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09110133333333333</v>
+        <v>1.030015666666667</v>
       </c>
       <c r="H4">
-        <v>0.273304</v>
+        <v>3.090047</v>
       </c>
       <c r="I4">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="J4">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>3.04449262259911</v>
+        <v>30.69587901814567</v>
       </c>
       <c r="R4">
-        <v>27.400433603392</v>
+        <v>276.262911163311</v>
       </c>
       <c r="S4">
-        <v>1.467467941640495E-05</v>
+        <v>0.0001596201323410983</v>
       </c>
       <c r="T4">
-        <v>1.467467941640495E-05</v>
+        <v>0.0001596201323410983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09110133333333333</v>
+        <v>1.030015666666667</v>
       </c>
       <c r="H5">
-        <v>0.273304</v>
+        <v>3.090047</v>
       </c>
       <c r="I5">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="J5">
-        <v>0.0001707582815695374</v>
+        <v>0.001946685538032228</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>9.46931294235111</v>
+        <v>89.07245124975178</v>
       </c>
       <c r="R5">
-        <v>85.22381648115999</v>
+        <v>801.6520612477661</v>
       </c>
       <c r="S5">
-        <v>4.564278812539415E-05</v>
+        <v>0.0004631812774615991</v>
       </c>
       <c r="T5">
-        <v>4.564278812539416E-05</v>
+        <v>0.0004631812774615991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.388847</v>
       </c>
       <c r="I6">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="J6">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>3.764346649066</v>
+        <v>1.756980495524334</v>
       </c>
       <c r="R6">
-        <v>33.879119841594</v>
+        <v>15.812824459719</v>
       </c>
       <c r="S6">
-        <v>1.814442901822583E-05</v>
+        <v>9.136387951312185E-06</v>
       </c>
       <c r="T6">
-        <v>1.814442901822583E-05</v>
+        <v>9.136387951312185E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.388847</v>
       </c>
       <c r="I7">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="J7">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>112.6708603863347</v>
@@ -883,10 +883,10 @@
         <v>1014.037743477012</v>
       </c>
       <c r="S7">
-        <v>0.000543081872975094</v>
+        <v>0.000585894205382446</v>
       </c>
       <c r="T7">
-        <v>0.000543081872975094</v>
+        <v>0.000585894205382446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.388847</v>
       </c>
       <c r="I8">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="J8">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>15.47117658511733</v>
+        <v>13.796514903079</v>
       </c>
       <c r="R8">
-        <v>139.240589266056</v>
+        <v>124.168634127711</v>
       </c>
       <c r="S8">
-        <v>7.457221439655389E-05</v>
+        <v>7.174257930107126E-05</v>
       </c>
       <c r="T8">
-        <v>7.457221439655389E-05</v>
+        <v>7.174257930107124E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.388847</v>
       </c>
       <c r="I9">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="J9">
-        <v>0.0008677411493538599</v>
+        <v>0.0008749538014921605</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>48.12014047377833</v>
+        <v>40.03434468824067</v>
       </c>
       <c r="R9">
-        <v>433.0812642640049</v>
+        <v>360.309102194166</v>
       </c>
       <c r="S9">
-        <v>0.0002319426329639862</v>
+        <v>0.0002081806288573311</v>
       </c>
       <c r="T9">
-        <v>0.0002319426329639862</v>
+        <v>0.0002081806288573311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.781221333333334</v>
+        <v>0.1159013333333333</v>
       </c>
       <c r="H10">
-        <v>23.343664</v>
+        <v>0.347704</v>
       </c>
       <c r="I10">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="J10">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>63.27093146712533</v>
+        <v>0.4398678516897779</v>
       </c>
       <c r="R10">
-        <v>569.4383832041279</v>
+        <v>3.958810665208001</v>
       </c>
       <c r="S10">
-        <v>0.0003049705651330302</v>
+        <v>2.287335204110354E-06</v>
       </c>
       <c r="T10">
-        <v>0.0003049705651330302</v>
+        <v>2.287335204110354E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.781221333333334</v>
+        <v>0.1159013333333333</v>
       </c>
       <c r="H11">
-        <v>23.343664</v>
+        <v>0.347704</v>
       </c>
       <c r="I11">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="J11">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>1893.765625334905</v>
+        <v>28.20764910733156</v>
       </c>
       <c r="R11">
-        <v>17043.89062801415</v>
+        <v>253.868841965984</v>
       </c>
       <c r="S11">
-        <v>0.009128090255601427</v>
+        <v>0.0001466812102328752</v>
       </c>
       <c r="T11">
-        <v>0.009128090255601427</v>
+        <v>0.0001466812102328752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>7.781221333333334</v>
+        <v>0.1159013333333333</v>
       </c>
       <c r="H12">
-        <v>23.343664</v>
+        <v>0.347704</v>
       </c>
       <c r="I12">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="J12">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>260.0386852458524</v>
+        <v>3.454018634061334</v>
       </c>
       <c r="R12">
-        <v>2340.348167212672</v>
+        <v>31.086167706552</v>
       </c>
       <c r="S12">
-        <v>0.001253405678673833</v>
+        <v>1.79610725971253E-05</v>
       </c>
       <c r="T12">
-        <v>0.001253405678673833</v>
+        <v>1.79610725971253E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>7.781221333333334</v>
+        <v>0.1159013333333333</v>
       </c>
       <c r="H13">
-        <v>23.343664</v>
+        <v>0.347704</v>
       </c>
       <c r="I13">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="J13">
-        <v>0.01458494551918989</v>
+        <v>0.0002190485608522971</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>808.8006748422844</v>
+        <v>10.02277557245689</v>
       </c>
       <c r="R13">
-        <v>7279.206073580559</v>
+        <v>90.20498015211201</v>
       </c>
       <c r="S13">
-        <v>0.003898479019781602</v>
+        <v>5.211894281818622E-05</v>
       </c>
       <c r="T13">
-        <v>0.003898479019781602</v>
+        <v>5.211894281818622E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>525.1752116666667</v>
+        <v>527.5036416666667</v>
       </c>
       <c r="H14">
-        <v>1575.525635</v>
+        <v>1582.510925</v>
       </c>
       <c r="I14">
-        <v>0.9843765550498866</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="J14">
-        <v>0.9843765550498867</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>4270.322537061196</v>
+        <v>2001.977776658748</v>
       </c>
       <c r="R14">
-        <v>38432.90283355077</v>
+        <v>18017.79998992873</v>
       </c>
       <c r="S14">
-        <v>0.02058327018789879</v>
+        <v>0.01041038627580281</v>
       </c>
       <c r="T14">
-        <v>0.02058327018789879</v>
+        <v>0.01041038627580281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>525.1752116666667</v>
+        <v>527.5036416666667</v>
       </c>
       <c r="H15">
-        <v>1575.525635</v>
+        <v>1582.510925</v>
       </c>
       <c r="I15">
-        <v>0.9843765550498866</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="J15">
-        <v>0.9843765550498867</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>127815.2516844377</v>
+        <v>128381.9365923852</v>
       </c>
       <c r="R15">
-        <v>1150337.265159939</v>
+        <v>1155437.429331467</v>
       </c>
       <c r="S15">
-        <v>0.616078958140151</v>
+        <v>0.6675926008494201</v>
       </c>
       <c r="T15">
-        <v>0.616078958140151</v>
+        <v>0.6675926008494201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>525.1752116666667</v>
+        <v>527.5036416666667</v>
       </c>
       <c r="H16">
-        <v>1575.525635</v>
+        <v>1582.510925</v>
       </c>
       <c r="I16">
-        <v>0.9843765550498866</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="J16">
-        <v>0.9843765550498867</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>17550.69875476861</v>
+        <v>15720.33172915939</v>
       </c>
       <c r="R16">
-        <v>157956.2887929175</v>
+        <v>141482.9855624345</v>
       </c>
       <c r="S16">
-        <v>0.08459566492240449</v>
+        <v>0.08174652465795307</v>
       </c>
       <c r="T16">
-        <v>0.08459566492240449</v>
+        <v>0.08174652465795305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>525.1752116666667</v>
+        <v>527.5036416666667</v>
       </c>
       <c r="H17">
-        <v>1575.525635</v>
+        <v>1582.510925</v>
       </c>
       <c r="I17">
-        <v>0.9843765550498866</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="J17">
-        <v>0.9843765550498867</v>
+        <v>0.9969593120996233</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>54588.0970879001</v>
+        <v>45616.82305131996</v>
       </c>
       <c r="R17">
-        <v>491292.873791101</v>
+        <v>410551.4074618797</v>
       </c>
       <c r="S17">
-        <v>0.2631186617994324</v>
+        <v>0.2372098003164473</v>
       </c>
       <c r="T17">
-        <v>0.2631186617994324</v>
+        <v>0.2372098003164473</v>
       </c>
     </row>
   </sheetData>
